--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Tgm2-Sdc4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Tgm2-Sdc4.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>96.17831799999999</v>
+        <v>37.98512966666667</v>
       </c>
       <c r="H2">
-        <v>288.534954</v>
+        <v>113.955389</v>
       </c>
       <c r="I2">
-        <v>0.7237598617297996</v>
+        <v>0.5085441461893128</v>
       </c>
       <c r="J2">
-        <v>0.7237598617297996</v>
+        <v>0.5085441461893129</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.324764666666667</v>
+        <v>0.668273</v>
       </c>
       <c r="N2">
-        <v>6.974294</v>
+        <v>2.004819</v>
       </c>
       <c r="O2">
-        <v>0.04473923998638302</v>
+        <v>0.01328414746766746</v>
       </c>
       <c r="P2">
-        <v>0.04473923998638301</v>
+        <v>0.01328414746766746</v>
       </c>
       <c r="Q2">
-        <v>223.5919553858307</v>
+        <v>25.38443655773233</v>
       </c>
       <c r="R2">
-        <v>2012.327598472476</v>
+        <v>228.459929019591</v>
       </c>
       <c r="S2">
-        <v>0.03238046614644089</v>
+        <v>0.00675557543179787</v>
       </c>
       <c r="T2">
-        <v>0.03238046614644088</v>
+        <v>0.00675557543179787</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>96.17831799999999</v>
+        <v>37.98512966666667</v>
       </c>
       <c r="H3">
-        <v>288.534954</v>
+        <v>113.955389</v>
       </c>
       <c r="I3">
-        <v>0.7237598617297996</v>
+        <v>0.5085441461893128</v>
       </c>
       <c r="J3">
-        <v>0.7237598617297996</v>
+        <v>0.5085441461893129</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>57.824759</v>
       </c>
       <c r="O3">
-        <v>0.3709387315842666</v>
+        <v>0.3831531055114357</v>
       </c>
       <c r="P3">
-        <v>0.3709387315842665</v>
+        <v>0.3831531055114357</v>
       </c>
       <c r="Q3">
-        <v>1853.82935312512</v>
+        <v>732.1603228529167</v>
       </c>
       <c r="R3">
-        <v>16684.46417812608</v>
+        <v>6589.442905676251</v>
       </c>
       <c r="S3">
-        <v>0.268470565081656</v>
+        <v>0.1948502689020968</v>
       </c>
       <c r="T3">
-        <v>0.268470565081656</v>
+        <v>0.1948502689020968</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>96.17831799999999</v>
+        <v>37.98512966666667</v>
       </c>
       <c r="H4">
-        <v>288.534954</v>
+        <v>113.955389</v>
       </c>
       <c r="I4">
-        <v>0.7237598617297996</v>
+        <v>0.5085441461893128</v>
       </c>
       <c r="J4">
-        <v>0.7237598617297996</v>
+        <v>0.5085441461893129</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>30.36285833333333</v>
+        <v>30.36285833333334</v>
       </c>
       <c r="N4">
-        <v>91.08857499999999</v>
+        <v>91.08857500000001</v>
       </c>
       <c r="O4">
-        <v>0.5843220284293504</v>
+        <v>0.6035627470208969</v>
       </c>
       <c r="P4">
-        <v>0.5843220284293503</v>
+        <v>0.6035627470208967</v>
       </c>
       <c r="Q4">
-        <v>2920.248644172283</v>
+        <v>1153.337110842297</v>
       </c>
       <c r="R4">
-        <v>26282.23779755054</v>
+        <v>10380.03399758067</v>
       </c>
       <c r="S4">
-        <v>0.4229088305017027</v>
+        <v>0.3069383018554181</v>
       </c>
       <c r="T4">
-        <v>0.4229088305017026</v>
+        <v>0.3069383018554181</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>39.705124</v>
       </c>
       <c r="I5">
-        <v>0.0995961655869415</v>
+        <v>0.1771904651558058</v>
       </c>
       <c r="J5">
-        <v>0.0995961655869415</v>
+        <v>0.1771904651558058</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.324764666666667</v>
+        <v>0.668273</v>
       </c>
       <c r="N5">
-        <v>6.974294</v>
+        <v>2.004819</v>
       </c>
       <c r="O5">
-        <v>0.04473923998638302</v>
+        <v>0.01328414746766746</v>
       </c>
       <c r="P5">
-        <v>0.04473923998638301</v>
+        <v>0.01328414746766746</v>
       </c>
       <c r="Q5">
-        <v>30.76835645360622</v>
+        <v>8.844620776950666</v>
       </c>
       <c r="R5">
-        <v>276.915208082456</v>
+        <v>79.60158699255599</v>
       </c>
       <c r="S5">
-        <v>0.004455856753917718</v>
+        <v>0.002353824268994316</v>
       </c>
       <c r="T5">
-        <v>0.004455856753917717</v>
+        <v>0.002353824268994316</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>39.705124</v>
       </c>
       <c r="I6">
-        <v>0.0995961655869415</v>
+        <v>0.1771904651558058</v>
       </c>
       <c r="J6">
-        <v>0.0995961655869415</v>
+        <v>0.1771904651558058</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>57.824759</v>
       </c>
       <c r="O6">
-        <v>0.3709387315842666</v>
+        <v>0.3831531055114357</v>
       </c>
       <c r="P6">
-        <v>0.3709387315842665</v>
+        <v>0.3831531055114357</v>
       </c>
       <c r="Q6">
         <v>255.1043584850129</v>
@@ -818,10 +818,10 @@
         <v>2295.939226365116</v>
       </c>
       <c r="S6">
-        <v>0.03694407533347666</v>
+        <v>0.06789107699146282</v>
       </c>
       <c r="T6">
-        <v>0.03694407533347666</v>
+        <v>0.06789107699146282</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>39.705124</v>
       </c>
       <c r="I7">
-        <v>0.0995961655869415</v>
+        <v>0.1771904651558058</v>
       </c>
       <c r="J7">
-        <v>0.0995961655869415</v>
+        <v>0.1771904651558058</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>30.36285833333333</v>
+        <v>30.36285833333334</v>
       </c>
       <c r="N7">
-        <v>91.08857499999999</v>
+        <v>91.08857500000001</v>
       </c>
       <c r="O7">
-        <v>0.5843220284293504</v>
+        <v>0.6035627470208969</v>
       </c>
       <c r="P7">
-        <v>0.5843220284293503</v>
+        <v>0.6035627470208967</v>
       </c>
       <c r="Q7">
         <v>401.8536850398111</v>
       </c>
       <c r="R7">
-        <v>3616.683165358299</v>
+        <v>3616.6831653583</v>
       </c>
       <c r="S7">
-        <v>0.05819623349954712</v>
+        <v>0.1069455638953486</v>
       </c>
       <c r="T7">
-        <v>0.05819623349954711</v>
+        <v>0.1069455638953486</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,13 +909,13 @@
         <v>23.47369766666667</v>
       </c>
       <c r="H8">
-        <v>70.42109300000001</v>
+        <v>70.421093</v>
       </c>
       <c r="I8">
-        <v>0.1766439726832589</v>
+        <v>0.3142653886548814</v>
       </c>
       <c r="J8">
-        <v>0.1766439726832589</v>
+        <v>0.3142653886548814</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.324764666666667</v>
+        <v>0.668273</v>
       </c>
       <c r="N8">
-        <v>6.974294</v>
+        <v>2.004819</v>
       </c>
       <c r="O8">
-        <v>0.04473923998638302</v>
+        <v>0.01328414746766746</v>
       </c>
       <c r="P8">
-        <v>0.04473923998638301</v>
+        <v>0.01328414746766746</v>
       </c>
       <c r="Q8">
-        <v>54.57082293148245</v>
+        <v>15.68683836079633</v>
       </c>
       <c r="R8">
-        <v>491.1374063833421</v>
+        <v>141.181545247167</v>
       </c>
       <c r="S8">
-        <v>0.007902917086024407</v>
+        <v>0.004174747766875272</v>
       </c>
       <c r="T8">
-        <v>0.007902917086024407</v>
+        <v>0.004174747766875272</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,13 +971,13 @@
         <v>23.47369766666667</v>
       </c>
       <c r="H9">
-        <v>70.42109300000001</v>
+        <v>70.421093</v>
       </c>
       <c r="I9">
-        <v>0.1766439726832589</v>
+        <v>0.3142653886548814</v>
       </c>
       <c r="J9">
-        <v>0.1766439726832589</v>
+        <v>0.3142653886548814</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>57.824759</v>
       </c>
       <c r="O9">
-        <v>0.3709387315842666</v>
+        <v>0.3831531055114357</v>
       </c>
       <c r="P9">
-        <v>0.3709387315842665</v>
+        <v>0.3831531055114357</v>
       </c>
       <c r="Q9">
         <v>452.4536368046208</v>
       </c>
       <c r="R9">
-        <v>4072.082731241588</v>
+        <v>4072.082731241587</v>
       </c>
       <c r="S9">
-        <v>0.06552409116913389</v>
+        <v>0.1204117596178761</v>
       </c>
       <c r="T9">
-        <v>0.06552409116913389</v>
+        <v>0.1204117596178761</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,13 +1033,13 @@
         <v>23.47369766666667</v>
       </c>
       <c r="H10">
-        <v>70.42109300000001</v>
+        <v>70.421093</v>
       </c>
       <c r="I10">
-        <v>0.1766439726832589</v>
+        <v>0.3142653886548814</v>
       </c>
       <c r="J10">
-        <v>0.1766439726832589</v>
+        <v>0.3142653886548814</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>30.36285833333333</v>
+        <v>30.36285833333334</v>
       </c>
       <c r="N10">
-        <v>91.08857499999999</v>
+        <v>91.08857500000001</v>
       </c>
       <c r="O10">
-        <v>0.5843220284293504</v>
+        <v>0.6035627470208969</v>
       </c>
       <c r="P10">
-        <v>0.5843220284293503</v>
+        <v>0.6035627470208967</v>
       </c>
       <c r="Q10">
         <v>712.7285568124972</v>
       </c>
       <c r="R10">
-        <v>6414.557011312476</v>
+        <v>6414.557011312475</v>
       </c>
       <c r="S10">
-        <v>0.1032169644281006</v>
+        <v>0.18967888127013</v>
       </c>
       <c r="T10">
-        <v>0.1032169644281006</v>
+        <v>0.18967888127013</v>
       </c>
     </row>
   </sheetData>
